--- a/file/planos_de_acao.xlsx
+++ b/file/planos_de_acao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mindsightpp-my.sharepoint.com/personal/julio_antloga_mindsight_com_br/Documents/Documentos/classificacao-clima/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{5CB3FD70-127C-4583-B385-DA8C3711A767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC2778DF-4BDC-413A-8804-F6AB680F0DDC}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{5CB3FD70-127C-4583-B385-DA8C3711A767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09E44CE5-BACD-47A2-A196-C268982AE402}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E72A46FF-F329-4882-8FEC-7001A1ED1DCA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E72A46FF-F329-4882-8FEC-7001A1ED1DCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -974,9 +974,6 @@
     <t>Benefícios pouco competitivos</t>
   </si>
   <si>
-    <t>Ampliar pacote de benefícios (saúde, alimentação, transporte); Negociar planos corporativos para reduzir custos; Oferecer opções flexíveis de benefícios.</t>
-  </si>
-  <si>
     <t>Falta de transparência na política salarial</t>
   </si>
   <si>
@@ -1689,6 +1686,29 @@
   </si>
   <si>
     <t>Documentar missão, visão e valores da empresa;Comunicar valores no onboarding de novos colaboradores; Reforçar valores em reuniões semanais e materiais internos.</t>
+  </si>
+  <si>
+    <t>Ampliar pacote de benefícios (saúde, alimentação, transporte, auxílio home office, creche); 
+Negociar condições mais vantajosas com operadoras de saúde, odontologia e seguro de vida;
+Buscar convênios corporativos (academias, farmácias, plataformas de bem-estar, educação);
+Avaliar fornecedores de benefícios flexíveis (plataformas de wallet digital, cartão de benefícios customizável);
+Oferecer plano de carreira educacional (cursos online, parcerias com universidades);
+Criar programa de benefícios flexíveis (colaborador escolhe entre opções);
+Incluir benefícios de saúde mental (terapia online, programas de mindfulness);
+Adotar benefícios voltados à qualidade de vida (day-off no aniversário, apoio a atividades físicas).
+Ampliar pacote de benefícios (alimentação, transporte, auxílio home office, creche);
+Oferecer plano de carreira educacional (cursos online, parcerias com universidades;
+Criar programa de benefícios flexíveis (colaborador escolhe entre opções);
+Incluir benefícios de saúde mental (terapia online, programas de mindfulness);
+Adotar benefícios voltados à qualidade de vida (day-off no aniversário, apoio a atividades físicas);
+Comunicar de forma clara o valor total do pacote de benefícios (salário + benefícios);
+Divulgar comparativos mostrando diferenciais já existentes (quando houver);
+Promover campanhas de uso dos benefícios para aumentar percepção de valor;
+Realizar sessões de Q&amp;A para ouvir dúvidas e sugestões sobre benefícios;
+Criar rotina de revisão anual dos benefícios com base em pesquisa de mercado;
+Monitorar indicadores de adesão e satisfação com cada benefício;
+Incluir perguntas específicas sobre benefícios em futuras pesquisas de clima;
+Estabelecer comitê de benefícios com representantes de diferentes áreas para avaliar propostas;</t>
   </si>
 </sst>
 </file>
@@ -1744,6 +1764,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2063,11 +2087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D9A504-D467-4C41-A2A3-089A079E7A2A}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2080,19 +2103,19 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B1" t="s">
         <v>545</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>546</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2106,7 +2129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2120,7 +2143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2134,7 +2157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2148,7 +2171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2162,7 +2185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2176,7 +2199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2190,7 +2213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2204,7 +2227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2218,7 +2241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2232,7 +2255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2246,7 +2269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2260,7 +2283,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2274,7 +2297,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2288,7 +2311,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2302,7 +2325,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2316,7 +2339,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2330,7 +2353,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2344,7 +2367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2358,7 +2381,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2372,7 +2395,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -2386,7 +2409,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2400,7 +2423,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2414,7 +2437,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -2428,7 +2451,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -2442,7 +2465,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -2456,7 +2479,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -2470,7 +2493,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -2484,7 +2507,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -2498,7 +2521,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2512,7 +2535,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -2526,7 +2549,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2540,7 +2563,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2554,7 +2577,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -2568,7 +2591,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -2582,7 +2605,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2596,7 +2619,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2610,7 +2633,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -2624,7 +2647,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -2638,7 +2661,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -2652,7 +2675,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -2666,7 +2689,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -2680,7 +2703,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -2694,7 +2717,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>81</v>
       </c>
@@ -2708,7 +2731,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -2722,7 +2745,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -2736,7 +2759,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>81</v>
       </c>
@@ -2750,7 +2773,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -2764,7 +2787,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>81</v>
       </c>
@@ -2778,7 +2801,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -2792,7 +2815,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>81</v>
       </c>
@@ -2806,7 +2829,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>81</v>
       </c>
@@ -2820,7 +2843,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>81</v>
       </c>
@@ -2834,7 +2857,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -2848,7 +2871,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -2862,7 +2885,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>81</v>
       </c>
@@ -2876,7 +2899,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>118</v>
       </c>
@@ -2890,7 +2913,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -2904,7 +2927,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -2918,7 +2941,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -2932,7 +2955,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>118</v>
       </c>
@@ -2946,7 +2969,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>118</v>
       </c>
@@ -2960,7 +2983,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>118</v>
       </c>
@@ -2974,7 +2997,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>118</v>
       </c>
@@ -2988,7 +3011,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -3002,7 +3025,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>118</v>
       </c>
@@ -3016,7 +3039,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>118</v>
       </c>
@@ -3030,7 +3053,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>118</v>
       </c>
@@ -3044,7 +3067,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>118</v>
       </c>
@@ -3058,7 +3081,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>118</v>
       </c>
@@ -3072,7 +3095,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>118</v>
       </c>
@@ -3086,7 +3109,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>118</v>
       </c>
@@ -3100,7 +3123,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>118</v>
       </c>
@@ -3114,7 +3137,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>118</v>
       </c>
@@ -3128,7 +3151,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>155</v>
       </c>
@@ -3139,10 +3162,10 @@
         <v>156</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>155</v>
       </c>
@@ -3156,7 +3179,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -3170,7 +3193,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>155</v>
       </c>
@@ -3184,7 +3207,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>155</v>
       </c>
@@ -3198,7 +3221,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>155</v>
       </c>
@@ -3212,7 +3235,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>155</v>
       </c>
@@ -3226,7 +3249,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>155</v>
       </c>
@@ -3240,7 +3263,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>155</v>
       </c>
@@ -3254,7 +3277,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>155</v>
       </c>
@@ -3268,7 +3291,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>155</v>
       </c>
@@ -3282,7 +3305,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>155</v>
       </c>
@@ -3296,7 +3319,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>155</v>
       </c>
@@ -3310,7 +3333,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>155</v>
       </c>
@@ -3324,7 +3347,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>155</v>
       </c>
@@ -3338,7 +3361,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>185</v>
       </c>
@@ -3352,7 +3375,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>185</v>
       </c>
@@ -3366,7 +3389,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>185</v>
       </c>
@@ -3380,7 +3403,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -3394,7 +3417,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>185</v>
       </c>
@@ -3408,7 +3431,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>185</v>
       </c>
@@ -3422,7 +3445,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>185</v>
       </c>
@@ -3436,7 +3459,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>185</v>
       </c>
@@ -3450,7 +3473,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>185</v>
       </c>
@@ -3464,7 +3487,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>185</v>
       </c>
@@ -3478,7 +3501,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>185</v>
       </c>
@@ -3492,7 +3515,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>185</v>
       </c>
@@ -3506,7 +3529,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>185</v>
       </c>
@@ -3520,7 +3543,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>185</v>
       </c>
@@ -3534,7 +3557,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>214</v>
       </c>
@@ -3548,7 +3571,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>214</v>
       </c>
@@ -3562,7 +3585,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>214</v>
       </c>
@@ -3576,7 +3599,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>214</v>
       </c>
@@ -3590,7 +3613,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>214</v>
       </c>
@@ -3604,7 +3627,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>214</v>
       </c>
@@ -3618,7 +3641,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>214</v>
       </c>
@@ -3632,7 +3655,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>214</v>
       </c>
@@ -3646,7 +3669,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>214</v>
       </c>
@@ -3660,7 +3683,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>214</v>
       </c>
@@ -3674,7 +3697,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>214</v>
       </c>
@@ -3688,7 +3711,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>214</v>
       </c>
@@ -3702,7 +3725,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>214</v>
       </c>
@@ -3716,7 +3739,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>214</v>
       </c>
@@ -3926,7 +3949,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>272</v>
       </c>
@@ -3940,7 +3963,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>272</v>
       </c>
@@ -3954,7 +3977,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>272</v>
       </c>
@@ -3968,7 +3991,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>272</v>
       </c>
@@ -3982,7 +4005,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -3996,7 +4019,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>272</v>
       </c>
@@ -4010,7 +4033,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>272</v>
       </c>
@@ -4024,7 +4047,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>272</v>
       </c>
@@ -4038,7 +4061,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>272</v>
       </c>
@@ -4052,7 +4075,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>272</v>
       </c>
@@ -4066,7 +4089,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>272</v>
       </c>
@@ -4080,7 +4103,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>272</v>
       </c>
@@ -4094,7 +4117,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>272</v>
       </c>
@@ -4108,7 +4131,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>272</v>
       </c>
@@ -4122,7 +4145,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>301</v>
       </c>
@@ -4136,7 +4159,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>301</v>
       </c>
@@ -4150,7 +4173,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>301</v>
       </c>
@@ -4164,7 +4187,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>301</v>
       </c>
@@ -4178,7 +4201,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>301</v>
       </c>
@@ -4188,11 +4211,11 @@
       <c r="C151" t="s">
         <v>310</v>
       </c>
-      <c r="D151" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D151" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>301</v>
       </c>
@@ -4200,13 +4223,13 @@
         <v>14</v>
       </c>
       <c r="C152" t="s">
+        <v>311</v>
+      </c>
+      <c r="D152" t="s">
         <v>312</v>
       </c>
-      <c r="D152" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>301</v>
       </c>
@@ -4214,13 +4237,13 @@
         <v>14</v>
       </c>
       <c r="C153" t="s">
+        <v>313</v>
+      </c>
+      <c r="D153" t="s">
         <v>314</v>
       </c>
-      <c r="D153" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>301</v>
       </c>
@@ -4228,13 +4251,13 @@
         <v>14</v>
       </c>
       <c r="C154" t="s">
+        <v>315</v>
+      </c>
+      <c r="D154" t="s">
         <v>316</v>
       </c>
-      <c r="D154" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>301</v>
       </c>
@@ -4242,13 +4265,13 @@
         <v>14</v>
       </c>
       <c r="C155" t="s">
+        <v>317</v>
+      </c>
+      <c r="D155" t="s">
         <v>318</v>
       </c>
-      <c r="D155" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>301</v>
       </c>
@@ -4256,13 +4279,13 @@
         <v>29</v>
       </c>
       <c r="C156" t="s">
+        <v>319</v>
+      </c>
+      <c r="D156" t="s">
         <v>320</v>
       </c>
-      <c r="D156" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>301</v>
       </c>
@@ -4270,13 +4293,13 @@
         <v>29</v>
       </c>
       <c r="C157" t="s">
+        <v>321</v>
+      </c>
+      <c r="D157" t="s">
         <v>322</v>
       </c>
-      <c r="D157" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>301</v>
       </c>
@@ -4284,13 +4307,13 @@
         <v>29</v>
       </c>
       <c r="C158" t="s">
+        <v>323</v>
+      </c>
+      <c r="D158" t="s">
         <v>324</v>
       </c>
-      <c r="D158" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>301</v>
       </c>
@@ -4298,13 +4321,13 @@
         <v>29</v>
       </c>
       <c r="C159" t="s">
+        <v>325</v>
+      </c>
+      <c r="D159" t="s">
         <v>326</v>
       </c>
-      <c r="D159" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>301</v>
       </c>
@@ -4312,1728 +4335,1722 @@
         <v>29</v>
       </c>
       <c r="C160" t="s">
+        <v>327</v>
+      </c>
+      <c r="D160" t="s">
         <v>328</v>
       </c>
-      <c r="D160" t="s">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+      <c r="B161" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" t="s">
         <v>330</v>
       </c>
-      <c r="B161" t="s">
-        <v>1</v>
-      </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>331</v>
       </c>
-      <c r="D161" t="s">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>329</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>330</v>
-      </c>
-      <c r="B162" t="s">
-        <v>1</v>
-      </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>333</v>
       </c>
-      <c r="D162" t="s">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>329</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>330</v>
-      </c>
-      <c r="B163" t="s">
-        <v>1</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>335</v>
       </c>
-      <c r="D163" t="s">
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>329</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>330</v>
-      </c>
-      <c r="B164" t="s">
-        <v>1</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>337</v>
       </c>
-      <c r="D164" t="s">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>329</v>
+      </c>
+      <c r="B165" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>330</v>
-      </c>
-      <c r="B165" t="s">
-        <v>14</v>
-      </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>339</v>
       </c>
-      <c r="D165" t="s">
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>329</v>
+      </c>
+      <c r="B166" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>330</v>
-      </c>
-      <c r="B166" t="s">
-        <v>14</v>
-      </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>341</v>
       </c>
-      <c r="D166" t="s">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>329</v>
+      </c>
+      <c r="B167" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>330</v>
-      </c>
-      <c r="B167" t="s">
-        <v>14</v>
-      </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>343</v>
       </c>
-      <c r="D167" t="s">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>329</v>
+      </c>
+      <c r="B168" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>330</v>
-      </c>
-      <c r="B168" t="s">
-        <v>14</v>
-      </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>345</v>
       </c>
-      <c r="D168" t="s">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>329</v>
+      </c>
+      <c r="B169" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>330</v>
-      </c>
-      <c r="B169" t="s">
-        <v>14</v>
-      </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>347</v>
       </c>
-      <c r="D169" t="s">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>329</v>
+      </c>
+      <c r="B170" t="s">
+        <v>29</v>
+      </c>
+      <c r="C170" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>330</v>
-      </c>
-      <c r="B170" t="s">
-        <v>29</v>
-      </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>349</v>
       </c>
-      <c r="D170" t="s">
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>329</v>
+      </c>
+      <c r="B171" t="s">
+        <v>29</v>
+      </c>
+      <c r="C171" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>330</v>
-      </c>
-      <c r="B171" t="s">
-        <v>29</v>
-      </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>351</v>
       </c>
-      <c r="D171" t="s">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>329</v>
+      </c>
+      <c r="B172" t="s">
+        <v>29</v>
+      </c>
+      <c r="C172" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>330</v>
-      </c>
-      <c r="B172" t="s">
-        <v>29</v>
-      </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>353</v>
       </c>
-      <c r="D172" t="s">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>329</v>
+      </c>
+      <c r="B173" t="s">
+        <v>29</v>
+      </c>
+      <c r="C173" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>330</v>
-      </c>
-      <c r="B173" t="s">
-        <v>29</v>
-      </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>355</v>
       </c>
-      <c r="D173" t="s">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>329</v>
+      </c>
+      <c r="B174" t="s">
+        <v>29</v>
+      </c>
+      <c r="C174" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>330</v>
-      </c>
-      <c r="B174" t="s">
-        <v>29</v>
-      </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>357</v>
       </c>
-      <c r="D174" t="s">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+      <c r="B175" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" t="s">
         <v>359</v>
       </c>
-      <c r="B175" t="s">
-        <v>1</v>
-      </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>360</v>
       </c>
-      <c r="D175" t="s">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>358</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>359</v>
-      </c>
-      <c r="B176" t="s">
-        <v>1</v>
-      </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>362</v>
       </c>
-      <c r="D176" t="s">
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>358</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>359</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1</v>
-      </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>364</v>
       </c>
-      <c r="D177" t="s">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>358</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>359</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>366</v>
       </c>
-      <c r="D178" t="s">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>358</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>359</v>
-      </c>
-      <c r="B179" t="s">
-        <v>1</v>
-      </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>368</v>
       </c>
-      <c r="D179" t="s">
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>358</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>359</v>
-      </c>
-      <c r="B180" t="s">
-        <v>1</v>
-      </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>370</v>
       </c>
-      <c r="D180" t="s">
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>358</v>
+      </c>
+      <c r="B181" t="s">
+        <v>14</v>
+      </c>
+      <c r="C181" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>359</v>
-      </c>
-      <c r="B181" t="s">
-        <v>14</v>
-      </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>372</v>
       </c>
-      <c r="D181" t="s">
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>358</v>
+      </c>
+      <c r="B182" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>359</v>
-      </c>
-      <c r="B182" t="s">
-        <v>14</v>
-      </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>374</v>
       </c>
-      <c r="D182" t="s">
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>358</v>
+      </c>
+      <c r="B183" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>359</v>
-      </c>
-      <c r="B183" t="s">
-        <v>14</v>
-      </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>376</v>
       </c>
-      <c r="D183" t="s">
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>358</v>
+      </c>
+      <c r="B184" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>359</v>
-      </c>
-      <c r="B184" t="s">
-        <v>14</v>
-      </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>378</v>
       </c>
-      <c r="D184" t="s">
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>358</v>
+      </c>
+      <c r="B185" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>359</v>
-      </c>
-      <c r="B185" t="s">
-        <v>14</v>
-      </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>380</v>
       </c>
-      <c r="D185" t="s">
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>358</v>
+      </c>
+      <c r="B186" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>359</v>
-      </c>
-      <c r="B186" t="s">
-        <v>14</v>
-      </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>382</v>
       </c>
-      <c r="D186" t="s">
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>358</v>
+      </c>
+      <c r="B187" t="s">
+        <v>29</v>
+      </c>
+      <c r="C187" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>359</v>
-      </c>
-      <c r="B187" t="s">
-        <v>29</v>
-      </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>384</v>
       </c>
-      <c r="D187" t="s">
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>358</v>
+      </c>
+      <c r="B188" t="s">
+        <v>29</v>
+      </c>
+      <c r="C188" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>359</v>
-      </c>
-      <c r="B188" t="s">
-        <v>29</v>
-      </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>386</v>
       </c>
-      <c r="D188" t="s">
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>358</v>
+      </c>
+      <c r="B189" t="s">
+        <v>29</v>
+      </c>
+      <c r="C189" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>359</v>
-      </c>
-      <c r="B189" t="s">
-        <v>29</v>
-      </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>388</v>
       </c>
-      <c r="D189" t="s">
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>358</v>
+      </c>
+      <c r="B190" t="s">
+        <v>29</v>
+      </c>
+      <c r="C190" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>359</v>
-      </c>
-      <c r="B190" t="s">
-        <v>29</v>
-      </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>390</v>
       </c>
-      <c r="D190" t="s">
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>358</v>
+      </c>
+      <c r="B191" t="s">
+        <v>29</v>
+      </c>
+      <c r="C191" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>359</v>
-      </c>
-      <c r="B191" t="s">
-        <v>29</v>
-      </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>392</v>
       </c>
-      <c r="D191" t="s">
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>358</v>
+      </c>
+      <c r="B192" t="s">
+        <v>29</v>
+      </c>
+      <c r="C192" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>359</v>
-      </c>
-      <c r="B192" t="s">
-        <v>29</v>
-      </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>394</v>
       </c>
-      <c r="D192" t="s">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+      <c r="B193" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
         <v>396</v>
       </c>
-      <c r="B193" t="s">
-        <v>1</v>
-      </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>397</v>
       </c>
-      <c r="D193" t="s">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>395</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+      <c r="D194" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>395</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1</v>
+      </c>
+      <c r="C195" t="s">
+        <v>400</v>
+      </c>
+      <c r="D195" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>395</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
+        <v>402</v>
+      </c>
+      <c r="D196" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>395</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" t="s">
+        <v>404</v>
+      </c>
+      <c r="D197" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>395</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198" t="s">
+        <v>406</v>
+      </c>
+      <c r="D198" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>395</v>
+      </c>
+      <c r="B199" t="s">
+        <v>14</v>
+      </c>
+      <c r="C199" t="s">
+        <v>408</v>
+      </c>
+      <c r="D199" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>395</v>
+      </c>
+      <c r="B200" t="s">
+        <v>14</v>
+      </c>
+      <c r="C200" t="s">
+        <v>410</v>
+      </c>
+      <c r="D200" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>395</v>
+      </c>
+      <c r="B201" t="s">
+        <v>14</v>
+      </c>
+      <c r="C201" t="s">
+        <v>412</v>
+      </c>
+      <c r="D201" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>395</v>
+      </c>
+      <c r="B202" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202" t="s">
+        <v>414</v>
+      </c>
+      <c r="D202" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>395</v>
+      </c>
+      <c r="B203" t="s">
+        <v>14</v>
+      </c>
+      <c r="C203" t="s">
+        <v>416</v>
+      </c>
+      <c r="D203" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>395</v>
+      </c>
+      <c r="B204" t="s">
+        <v>14</v>
+      </c>
+      <c r="C204" t="s">
+        <v>418</v>
+      </c>
+      <c r="D204" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>395</v>
+      </c>
+      <c r="B205" t="s">
+        <v>29</v>
+      </c>
+      <c r="C205" t="s">
+        <v>420</v>
+      </c>
+      <c r="D205" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>395</v>
+      </c>
+      <c r="B206" t="s">
+        <v>29</v>
+      </c>
+      <c r="C206" t="s">
+        <v>422</v>
+      </c>
+      <c r="D206" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>395</v>
+      </c>
+      <c r="B207" t="s">
+        <v>29</v>
+      </c>
+      <c r="C207" t="s">
+        <v>424</v>
+      </c>
+      <c r="D207" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>395</v>
+      </c>
+      <c r="B208" t="s">
+        <v>29</v>
+      </c>
+      <c r="C208" t="s">
+        <v>426</v>
+      </c>
+      <c r="D208" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>395</v>
+      </c>
+      <c r="B209" t="s">
+        <v>29</v>
+      </c>
+      <c r="C209" t="s">
+        <v>428</v>
+      </c>
+      <c r="D209" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>395</v>
+      </c>
+      <c r="B210" t="s">
+        <v>29</v>
+      </c>
+      <c r="C210" t="s">
+        <v>430</v>
+      </c>
+      <c r="D210" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>395</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1</v>
+      </c>
+      <c r="C211" t="s">
         <v>396</v>
       </c>
-      <c r="B194" t="s">
-        <v>1</v>
-      </c>
-      <c r="C194" t="s">
+      <c r="D211" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>395</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
+        <v>398</v>
+      </c>
+      <c r="D212" t="s">
         <v>399</v>
       </c>
-      <c r="D194" t="s">
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>395</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>396</v>
-      </c>
-      <c r="B195" t="s">
-        <v>1</v>
-      </c>
-      <c r="C195" t="s">
+      <c r="D213" t="s">
         <v>401</v>
       </c>
-      <c r="D195" t="s">
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>395</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>396</v>
-      </c>
-      <c r="B196" t="s">
-        <v>1</v>
-      </c>
-      <c r="C196" t="s">
+      <c r="D214" t="s">
         <v>403</v>
       </c>
-      <c r="D196" t="s">
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>395</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1</v>
+      </c>
+      <c r="C215" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>396</v>
-      </c>
-      <c r="B197" t="s">
-        <v>1</v>
-      </c>
-      <c r="C197" t="s">
+      <c r="D215" t="s">
         <v>405</v>
       </c>
-      <c r="D197" t="s">
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>395</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1</v>
+      </c>
+      <c r="C216" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>396</v>
-      </c>
-      <c r="B198" t="s">
-        <v>1</v>
-      </c>
-      <c r="C198" t="s">
+      <c r="D216" t="s">
         <v>407</v>
       </c>
-      <c r="D198" t="s">
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>395</v>
+      </c>
+      <c r="B217" t="s">
+        <v>14</v>
+      </c>
+      <c r="C217" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>396</v>
-      </c>
-      <c r="B199" t="s">
-        <v>14</v>
-      </c>
-      <c r="C199" t="s">
+      <c r="D217" t="s">
         <v>409</v>
       </c>
-      <c r="D199" t="s">
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>395</v>
+      </c>
+      <c r="B218" t="s">
+        <v>14</v>
+      </c>
+      <c r="C218" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>396</v>
-      </c>
-      <c r="B200" t="s">
-        <v>14</v>
-      </c>
-      <c r="C200" t="s">
+      <c r="D218" t="s">
         <v>411</v>
       </c>
-      <c r="D200" t="s">
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>395</v>
+      </c>
+      <c r="B219" t="s">
+        <v>14</v>
+      </c>
+      <c r="C219" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>396</v>
-      </c>
-      <c r="B201" t="s">
-        <v>14</v>
-      </c>
-      <c r="C201" t="s">
+      <c r="D219" t="s">
         <v>413</v>
       </c>
-      <c r="D201" t="s">
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>395</v>
+      </c>
+      <c r="B220" t="s">
+        <v>14</v>
+      </c>
+      <c r="C220" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>396</v>
-      </c>
-      <c r="B202" t="s">
-        <v>14</v>
-      </c>
-      <c r="C202" t="s">
+      <c r="D220" t="s">
         <v>415</v>
       </c>
-      <c r="D202" t="s">
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>395</v>
+      </c>
+      <c r="B221" t="s">
+        <v>14</v>
+      </c>
+      <c r="C221" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>396</v>
-      </c>
-      <c r="B203" t="s">
-        <v>14</v>
-      </c>
-      <c r="C203" t="s">
+      <c r="D221" t="s">
         <v>417</v>
       </c>
-      <c r="D203" t="s">
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>395</v>
+      </c>
+      <c r="B222" t="s">
+        <v>14</v>
+      </c>
+      <c r="C222" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
-        <v>396</v>
-      </c>
-      <c r="B204" t="s">
-        <v>14</v>
-      </c>
-      <c r="C204" t="s">
+      <c r="D222" t="s">
         <v>419</v>
       </c>
-      <c r="D204" t="s">
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>395</v>
+      </c>
+      <c r="B223" t="s">
+        <v>29</v>
+      </c>
+      <c r="C223" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>396</v>
-      </c>
-      <c r="B205" t="s">
-        <v>29</v>
-      </c>
-      <c r="C205" t="s">
+      <c r="D223" t="s">
         <v>421</v>
       </c>
-      <c r="D205" t="s">
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>395</v>
+      </c>
+      <c r="B224" t="s">
+        <v>29</v>
+      </c>
+      <c r="C224" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
-        <v>396</v>
-      </c>
-      <c r="B206" t="s">
-        <v>29</v>
-      </c>
-      <c r="C206" t="s">
+      <c r="D224" t="s">
         <v>423</v>
       </c>
-      <c r="D206" t="s">
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>395</v>
+      </c>
+      <c r="B225" t="s">
+        <v>29</v>
+      </c>
+      <c r="C225" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
-        <v>396</v>
-      </c>
-      <c r="B207" t="s">
-        <v>29</v>
-      </c>
-      <c r="C207" t="s">
+      <c r="D225" t="s">
         <v>425</v>
       </c>
-      <c r="D207" t="s">
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>395</v>
+      </c>
+      <c r="B226" t="s">
+        <v>29</v>
+      </c>
+      <c r="C226" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
-        <v>396</v>
-      </c>
-      <c r="B208" t="s">
-        <v>29</v>
-      </c>
-      <c r="C208" t="s">
+      <c r="D226" t="s">
         <v>427</v>
       </c>
-      <c r="D208" t="s">
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>395</v>
+      </c>
+      <c r="B227" t="s">
+        <v>29</v>
+      </c>
+      <c r="C227" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
-        <v>396</v>
-      </c>
-      <c r="B209" t="s">
-        <v>29</v>
-      </c>
-      <c r="C209" t="s">
+      <c r="D227" t="s">
         <v>429</v>
       </c>
-      <c r="D209" t="s">
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>395</v>
+      </c>
+      <c r="B228" t="s">
+        <v>29</v>
+      </c>
+      <c r="C228" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
-        <v>396</v>
-      </c>
-      <c r="B210" t="s">
-        <v>29</v>
-      </c>
-      <c r="C210" t="s">
+      <c r="D228" t="s">
         <v>431</v>
       </c>
-      <c r="D210" t="s">
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
-        <v>396</v>
-      </c>
-      <c r="B211" t="s">
-        <v>1</v>
-      </c>
-      <c r="C211" t="s">
-        <v>397</v>
-      </c>
-      <c r="D211" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>396</v>
-      </c>
-      <c r="B212" t="s">
-        <v>1</v>
-      </c>
-      <c r="C212" t="s">
-        <v>399</v>
-      </c>
-      <c r="D212" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>396</v>
-      </c>
-      <c r="B213" t="s">
-        <v>1</v>
-      </c>
-      <c r="C213" t="s">
-        <v>401</v>
-      </c>
-      <c r="D213" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>396</v>
-      </c>
-      <c r="B214" t="s">
-        <v>1</v>
-      </c>
-      <c r="C214" t="s">
-        <v>403</v>
-      </c>
-      <c r="D214" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>396</v>
-      </c>
-      <c r="B215" t="s">
-        <v>1</v>
-      </c>
-      <c r="C215" t="s">
-        <v>405</v>
-      </c>
-      <c r="D215" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
-        <v>396</v>
-      </c>
-      <c r="B216" t="s">
-        <v>1</v>
-      </c>
-      <c r="C216" t="s">
-        <v>407</v>
-      </c>
-      <c r="D216" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>396</v>
-      </c>
-      <c r="B217" t="s">
-        <v>14</v>
-      </c>
-      <c r="C217" t="s">
-        <v>409</v>
-      </c>
-      <c r="D217" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
-        <v>396</v>
-      </c>
-      <c r="B218" t="s">
-        <v>14</v>
-      </c>
-      <c r="C218" t="s">
-        <v>411</v>
-      </c>
-      <c r="D218" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>396</v>
-      </c>
-      <c r="B219" t="s">
-        <v>14</v>
-      </c>
-      <c r="C219" t="s">
-        <v>413</v>
-      </c>
-      <c r="D219" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>396</v>
-      </c>
-      <c r="B220" t="s">
-        <v>14</v>
-      </c>
-      <c r="C220" t="s">
-        <v>415</v>
-      </c>
-      <c r="D220" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>396</v>
-      </c>
-      <c r="B221" t="s">
-        <v>14</v>
-      </c>
-      <c r="C221" t="s">
-        <v>417</v>
-      </c>
-      <c r="D221" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>396</v>
-      </c>
-      <c r="B222" t="s">
-        <v>14</v>
-      </c>
-      <c r="C222" t="s">
-        <v>419</v>
-      </c>
-      <c r="D222" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
-        <v>396</v>
-      </c>
-      <c r="B223" t="s">
-        <v>29</v>
-      </c>
-      <c r="C223" t="s">
-        <v>421</v>
-      </c>
-      <c r="D223" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
-        <v>396</v>
-      </c>
-      <c r="B224" t="s">
-        <v>29</v>
-      </c>
-      <c r="C224" t="s">
-        <v>423</v>
-      </c>
-      <c r="D224" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>396</v>
-      </c>
-      <c r="B225" t="s">
-        <v>29</v>
-      </c>
-      <c r="C225" t="s">
-        <v>425</v>
-      </c>
-      <c r="D225" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>396</v>
-      </c>
-      <c r="B226" t="s">
-        <v>29</v>
-      </c>
-      <c r="C226" t="s">
-        <v>427</v>
-      </c>
-      <c r="D226" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
-        <v>396</v>
-      </c>
-      <c r="B227" t="s">
-        <v>29</v>
-      </c>
-      <c r="C227" t="s">
-        <v>429</v>
-      </c>
-      <c r="D227" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>396</v>
-      </c>
-      <c r="B228" t="s">
-        <v>29</v>
-      </c>
-      <c r="C228" t="s">
-        <v>431</v>
-      </c>
-      <c r="D228" t="s">
+      <c r="B229" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>433</v>
+      </c>
+      <c r="D229" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
-        <v>433</v>
-      </c>
-      <c r="B229" t="s">
-        <v>1</v>
-      </c>
-      <c r="C229" t="s">
-        <v>434</v>
-      </c>
-      <c r="D229" t="s">
+      <c r="B230" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
-        <v>433</v>
-      </c>
-      <c r="B230" t="s">
-        <v>1</v>
-      </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>436</v>
       </c>
-      <c r="D230" t="s">
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>432</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
-        <v>433</v>
-      </c>
-      <c r="B231" t="s">
-        <v>1</v>
-      </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>438</v>
       </c>
-      <c r="D231" t="s">
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>432</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>433</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1</v>
-      </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>440</v>
       </c>
-      <c r="D232" t="s">
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>432</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1</v>
+      </c>
+      <c r="C233" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
-        <v>433</v>
-      </c>
-      <c r="B233" t="s">
-        <v>1</v>
-      </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>442</v>
       </c>
-      <c r="D233" t="s">
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>432</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
-        <v>433</v>
-      </c>
-      <c r="B234" t="s">
-        <v>1</v>
-      </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
         <v>444</v>
       </c>
-      <c r="D234" t="s">
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>432</v>
+      </c>
+      <c r="B235" t="s">
+        <v>14</v>
+      </c>
+      <c r="C235" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>433</v>
-      </c>
-      <c r="B235" t="s">
-        <v>14</v>
-      </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
         <v>446</v>
       </c>
-      <c r="D235" t="s">
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>432</v>
+      </c>
+      <c r="B236" t="s">
+        <v>14</v>
+      </c>
+      <c r="C236" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
-        <v>433</v>
-      </c>
-      <c r="B236" t="s">
-        <v>14</v>
-      </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>448</v>
       </c>
-      <c r="D236" t="s">
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>432</v>
+      </c>
+      <c r="B237" t="s">
+        <v>14</v>
+      </c>
+      <c r="C237" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
-        <v>433</v>
-      </c>
-      <c r="B237" t="s">
-        <v>14</v>
-      </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>450</v>
       </c>
-      <c r="D237" t="s">
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>432</v>
+      </c>
+      <c r="B238" t="s">
+        <v>14</v>
+      </c>
+      <c r="C238" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
-        <v>433</v>
-      </c>
-      <c r="B238" t="s">
-        <v>14</v>
-      </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>452</v>
       </c>
-      <c r="D238" t="s">
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>432</v>
+      </c>
+      <c r="B239" t="s">
+        <v>14</v>
+      </c>
+      <c r="C239" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
-        <v>433</v>
-      </c>
-      <c r="B239" t="s">
-        <v>14</v>
-      </c>
-      <c r="C239" t="s">
+      <c r="D239" t="s">
         <v>454</v>
       </c>
-      <c r="D239" t="s">
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>432</v>
+      </c>
+      <c r="B240" t="s">
+        <v>14</v>
+      </c>
+      <c r="C240" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
-        <v>433</v>
-      </c>
-      <c r="B240" t="s">
-        <v>14</v>
-      </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
         <v>456</v>
       </c>
-      <c r="D240" t="s">
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>432</v>
+      </c>
+      <c r="B241" t="s">
+        <v>29</v>
+      </c>
+      <c r="C241" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>433</v>
-      </c>
-      <c r="B241" t="s">
-        <v>29</v>
-      </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
         <v>458</v>
       </c>
-      <c r="D241" t="s">
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>432</v>
+      </c>
+      <c r="B242" t="s">
+        <v>29</v>
+      </c>
+      <c r="C242" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>433</v>
-      </c>
-      <c r="B242" t="s">
-        <v>29</v>
-      </c>
-      <c r="C242" t="s">
+      <c r="D242" t="s">
         <v>460</v>
       </c>
-      <c r="D242" t="s">
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>432</v>
+      </c>
+      <c r="B243" t="s">
+        <v>29</v>
+      </c>
+      <c r="C243" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>433</v>
-      </c>
-      <c r="B243" t="s">
-        <v>29</v>
-      </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
         <v>462</v>
       </c>
-      <c r="D243" t="s">
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>432</v>
+      </c>
+      <c r="B244" t="s">
+        <v>29</v>
+      </c>
+      <c r="C244" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>433</v>
-      </c>
-      <c r="B244" t="s">
-        <v>29</v>
-      </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
         <v>464</v>
       </c>
-      <c r="D244" t="s">
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>432</v>
+      </c>
+      <c r="B245" t="s">
+        <v>29</v>
+      </c>
+      <c r="C245" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>433</v>
-      </c>
-      <c r="B245" t="s">
-        <v>29</v>
-      </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
         <v>466</v>
       </c>
-      <c r="D245" t="s">
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>432</v>
+      </c>
+      <c r="B246" t="s">
+        <v>29</v>
+      </c>
+      <c r="C246" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>433</v>
-      </c>
-      <c r="B246" t="s">
-        <v>29</v>
-      </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
         <v>468</v>
       </c>
-      <c r="D246" t="s">
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
+      <c r="B247" t="s">
+        <v>1</v>
+      </c>
+      <c r="C247" t="s">
         <v>470</v>
       </c>
-      <c r="B247" t="s">
-        <v>1</v>
-      </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>471</v>
       </c>
-      <c r="D247" t="s">
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>469</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1</v>
+      </c>
+      <c r="C248" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
-        <v>470</v>
-      </c>
-      <c r="B248" t="s">
-        <v>1</v>
-      </c>
-      <c r="C248" t="s">
+      <c r="D248" t="s">
         <v>473</v>
       </c>
-      <c r="D248" t="s">
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>469</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1</v>
+      </c>
+      <c r="C249" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>470</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1</v>
-      </c>
-      <c r="C249" t="s">
+      <c r="D249" t="s">
         <v>475</v>
       </c>
-      <c r="D249" t="s">
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>469</v>
+      </c>
+      <c r="B250" t="s">
+        <v>14</v>
+      </c>
+      <c r="C250" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>470</v>
-      </c>
-      <c r="B250" t="s">
-        <v>14</v>
-      </c>
-      <c r="C250" t="s">
+      <c r="D250" t="s">
         <v>477</v>
       </c>
-      <c r="D250" t="s">
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>469</v>
+      </c>
+      <c r="B251" t="s">
+        <v>14</v>
+      </c>
+      <c r="C251" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>470</v>
-      </c>
-      <c r="B251" t="s">
-        <v>14</v>
-      </c>
-      <c r="C251" t="s">
+      <c r="D251" t="s">
         <v>479</v>
       </c>
-      <c r="D251" t="s">
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>469</v>
+      </c>
+      <c r="B252" t="s">
+        <v>14</v>
+      </c>
+      <c r="C252" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
-        <v>470</v>
-      </c>
-      <c r="B252" t="s">
-        <v>14</v>
-      </c>
-      <c r="C252" t="s">
+      <c r="D252" t="s">
         <v>481</v>
       </c>
-      <c r="D252" t="s">
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>469</v>
+      </c>
+      <c r="B253" t="s">
+        <v>14</v>
+      </c>
+      <c r="C253" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>470</v>
-      </c>
-      <c r="B253" t="s">
-        <v>14</v>
-      </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
         <v>483</v>
       </c>
-      <c r="D253" t="s">
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>469</v>
+      </c>
+      <c r="B254" t="s">
+        <v>29</v>
+      </c>
+      <c r="C254" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>470</v>
-      </c>
-      <c r="B254" t="s">
-        <v>29</v>
-      </c>
-      <c r="C254" t="s">
+      <c r="D254" t="s">
         <v>485</v>
       </c>
-      <c r="D254" t="s">
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>469</v>
+      </c>
+      <c r="B255" t="s">
+        <v>29</v>
+      </c>
+      <c r="C255" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>470</v>
-      </c>
-      <c r="B255" t="s">
-        <v>29</v>
-      </c>
-      <c r="C255" t="s">
+      <c r="D255" t="s">
         <v>487</v>
       </c>
-      <c r="D255" t="s">
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>469</v>
+      </c>
+      <c r="B256" t="s">
+        <v>29</v>
+      </c>
+      <c r="C256" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>470</v>
-      </c>
-      <c r="B256" t="s">
-        <v>29</v>
-      </c>
-      <c r="C256" t="s">
+      <c r="D256" t="s">
         <v>489</v>
       </c>
-      <c r="D256" t="s">
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>469</v>
+      </c>
+      <c r="B257" t="s">
+        <v>29</v>
+      </c>
+      <c r="C257" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>470</v>
-      </c>
-      <c r="B257" t="s">
-        <v>29</v>
-      </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
         <v>491</v>
       </c>
-      <c r="D257" t="s">
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>469</v>
+      </c>
+      <c r="B258" t="s">
+        <v>29</v>
+      </c>
+      <c r="C258" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>470</v>
-      </c>
-      <c r="B258" t="s">
-        <v>29</v>
-      </c>
-      <c r="C258" t="s">
+      <c r="D258" t="s">
         <v>493</v>
       </c>
-      <c r="D258" t="s">
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
+      <c r="B259" t="s">
+        <v>1</v>
+      </c>
+      <c r="C259" t="s">
         <v>495</v>
       </c>
-      <c r="B259" t="s">
-        <v>1</v>
-      </c>
-      <c r="C259" t="s">
+      <c r="D259" t="s">
         <v>496</v>
       </c>
-      <c r="D259" t="s">
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>494</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1</v>
+      </c>
+      <c r="C260" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>495</v>
-      </c>
-      <c r="B260" t="s">
-        <v>1</v>
-      </c>
-      <c r="C260" t="s">
+      <c r="D260" t="s">
         <v>498</v>
       </c>
-      <c r="D260" t="s">
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>494</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1</v>
+      </c>
+      <c r="C261" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>495</v>
-      </c>
-      <c r="B261" t="s">
-        <v>1</v>
-      </c>
-      <c r="C261" t="s">
+      <c r="D261" t="s">
         <v>500</v>
       </c>
-      <c r="D261" t="s">
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>494</v>
+      </c>
+      <c r="B262" t="s">
+        <v>14</v>
+      </c>
+      <c r="C262" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>495</v>
-      </c>
-      <c r="B262" t="s">
-        <v>14</v>
-      </c>
-      <c r="C262" t="s">
+      <c r="D262" t="s">
         <v>502</v>
       </c>
-      <c r="D262" t="s">
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>494</v>
+      </c>
+      <c r="B263" t="s">
+        <v>14</v>
+      </c>
+      <c r="C263" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>495</v>
-      </c>
-      <c r="B263" t="s">
-        <v>14</v>
-      </c>
-      <c r="C263" t="s">
+      <c r="D263" t="s">
         <v>504</v>
       </c>
-      <c r="D263" t="s">
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>494</v>
+      </c>
+      <c r="B264" t="s">
+        <v>14</v>
+      </c>
+      <c r="C264" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>495</v>
-      </c>
-      <c r="B264" t="s">
-        <v>14</v>
-      </c>
-      <c r="C264" t="s">
+      <c r="D264" t="s">
         <v>506</v>
       </c>
-      <c r="D264" t="s">
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>494</v>
+      </c>
+      <c r="B265" t="s">
+        <v>14</v>
+      </c>
+      <c r="C265" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>495</v>
-      </c>
-      <c r="B265" t="s">
-        <v>14</v>
-      </c>
-      <c r="C265" t="s">
+      <c r="D265" t="s">
         <v>508</v>
       </c>
-      <c r="D265" t="s">
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>494</v>
+      </c>
+      <c r="B266" t="s">
+        <v>29</v>
+      </c>
+      <c r="C266" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>495</v>
-      </c>
-      <c r="B266" t="s">
-        <v>29</v>
-      </c>
-      <c r="C266" t="s">
+      <c r="D266" t="s">
         <v>510</v>
       </c>
-      <c r="D266" t="s">
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>494</v>
+      </c>
+      <c r="B267" t="s">
+        <v>29</v>
+      </c>
+      <c r="C267" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>495</v>
-      </c>
-      <c r="B267" t="s">
-        <v>29</v>
-      </c>
-      <c r="C267" t="s">
+      <c r="D267" t="s">
         <v>512</v>
       </c>
-      <c r="D267" t="s">
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>494</v>
+      </c>
+      <c r="B268" t="s">
+        <v>29</v>
+      </c>
+      <c r="C268" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>495</v>
-      </c>
-      <c r="B268" t="s">
-        <v>29</v>
-      </c>
-      <c r="C268" t="s">
+      <c r="D268" t="s">
         <v>514</v>
       </c>
-      <c r="D268" t="s">
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>494</v>
+      </c>
+      <c r="B269" t="s">
+        <v>29</v>
+      </c>
+      <c r="C269" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
-        <v>495</v>
-      </c>
-      <c r="B269" t="s">
-        <v>29</v>
-      </c>
-      <c r="C269" t="s">
+      <c r="D269" t="s">
         <v>516</v>
       </c>
-      <c r="D269" t="s">
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>494</v>
+      </c>
+      <c r="B270" t="s">
+        <v>29</v>
+      </c>
+      <c r="C270" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
-        <v>495</v>
-      </c>
-      <c r="B270" t="s">
-        <v>29</v>
-      </c>
-      <c r="C270" t="s">
+      <c r="D270" t="s">
         <v>518</v>
       </c>
-      <c r="D270" t="s">
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
+      <c r="B271" t="s">
+        <v>1</v>
+      </c>
+      <c r="C271" t="s">
         <v>520</v>
       </c>
-      <c r="B271" t="s">
-        <v>1</v>
-      </c>
-      <c r="C271" t="s">
+      <c r="D271" t="s">
         <v>521</v>
       </c>
-      <c r="D271" t="s">
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>519</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1</v>
+      </c>
+      <c r="C272" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
-        <v>520</v>
-      </c>
-      <c r="B272" t="s">
-        <v>1</v>
-      </c>
-      <c r="C272" t="s">
+      <c r="D272" t="s">
         <v>523</v>
       </c>
-      <c r="D272" t="s">
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>519</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1</v>
+      </c>
+      <c r="C273" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
-        <v>520</v>
-      </c>
-      <c r="B273" t="s">
-        <v>1</v>
-      </c>
-      <c r="C273" t="s">
+      <c r="D273" t="s">
         <v>525</v>
       </c>
-      <c r="D273" t="s">
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>519</v>
+      </c>
+      <c r="B274" t="s">
+        <v>14</v>
+      </c>
+      <c r="C274" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
-        <v>520</v>
-      </c>
-      <c r="B274" t="s">
-        <v>14</v>
-      </c>
-      <c r="C274" t="s">
+      <c r="D274" t="s">
         <v>527</v>
       </c>
-      <c r="D274" t="s">
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>519</v>
+      </c>
+      <c r="B275" t="s">
+        <v>14</v>
+      </c>
+      <c r="C275" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>520</v>
-      </c>
-      <c r="B275" t="s">
-        <v>14</v>
-      </c>
-      <c r="C275" t="s">
+      <c r="D275" t="s">
         <v>529</v>
       </c>
-      <c r="D275" t="s">
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>519</v>
+      </c>
+      <c r="B276" t="s">
+        <v>14</v>
+      </c>
+      <c r="C276" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>520</v>
-      </c>
-      <c r="B276" t="s">
-        <v>14</v>
-      </c>
-      <c r="C276" t="s">
+      <c r="D276" t="s">
         <v>531</v>
       </c>
-      <c r="D276" t="s">
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>519</v>
+      </c>
+      <c r="B277" t="s">
+        <v>14</v>
+      </c>
+      <c r="C277" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
-        <v>520</v>
-      </c>
-      <c r="B277" t="s">
-        <v>14</v>
-      </c>
-      <c r="C277" t="s">
+      <c r="D277" t="s">
         <v>533</v>
       </c>
-      <c r="D277" t="s">
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>519</v>
+      </c>
+      <c r="B278" t="s">
+        <v>29</v>
+      </c>
+      <c r="C278" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>520</v>
-      </c>
-      <c r="B278" t="s">
-        <v>29</v>
-      </c>
-      <c r="C278" t="s">
+      <c r="D278" t="s">
         <v>535</v>
       </c>
-      <c r="D278" t="s">
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>519</v>
+      </c>
+      <c r="B279" t="s">
+        <v>29</v>
+      </c>
+      <c r="C279" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>520</v>
-      </c>
-      <c r="B279" t="s">
-        <v>29</v>
-      </c>
-      <c r="C279" t="s">
+      <c r="D279" t="s">
         <v>537</v>
       </c>
-      <c r="D279" t="s">
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>519</v>
+      </c>
+      <c r="B280" t="s">
+        <v>29</v>
+      </c>
+      <c r="C280" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
-        <v>520</v>
-      </c>
-      <c r="B280" t="s">
-        <v>29</v>
-      </c>
-      <c r="C280" t="s">
+      <c r="D280" t="s">
         <v>539</v>
       </c>
-      <c r="D280" t="s">
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>519</v>
+      </c>
+      <c r="B281" t="s">
+        <v>29</v>
+      </c>
+      <c r="C281" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
-        <v>520</v>
-      </c>
-      <c r="B281" t="s">
-        <v>29</v>
-      </c>
-      <c r="C281" t="s">
+      <c r="D281" t="s">
         <v>541</v>
       </c>
-      <c r="D281" t="s">
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>519</v>
+      </c>
+      <c r="B282" t="s">
+        <v>29</v>
+      </c>
+      <c r="C282" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
-        <v>520</v>
-      </c>
-      <c r="B282" t="s">
-        <v>29</v>
-      </c>
-      <c r="C282" t="s">
+      <c r="D282" t="s">
         <v>543</v>
       </c>
-      <c r="D282" t="s">
-        <v>544</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D282" xr:uid="{A8D9A504-D467-4C41-A2A3-089A079E7A2A}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Ambiente e Bem-estar no Trabalho"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D282" xr:uid="{A8D9A504-D467-4C41-A2A3-089A079E7A2A}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>